--- a/schedule_with_off_rows_all.xlsx
+++ b/schedule_with_off_rows_all.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1332,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1413,22 +1413,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-11-13 23:00</t>
+          <t>2025-11-13 06:30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-11-14 02:00</t>
+          <t>2025-11-13 12:00</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1575,22 +1575,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1602,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1629,22 +1629,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1656,22 +1656,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1683,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1710,22 +1710,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-13 23:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 02:00</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2385,22 +2385,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-11-14 23:00</t>
+          <t>2025-11-14 06:30</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-11-15 02:00</t>
+          <t>2025-11-14 12:00</t>
         </is>
       </c>
     </row>
@@ -2412,22 +2412,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-11-14 23:00</t>
+          <t>2025-11-14 06:30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-11-15 02:00</t>
+          <t>2025-11-14 12:00</t>
         </is>
       </c>
     </row>
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-11-14 23:00</t>
+          <t>2025-11-14 06:30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-11-15 02:00</t>
+          <t>2025-11-14 12:00</t>
         </is>
       </c>
     </row>
@@ -2466,22 +2466,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-11-14 23:00</t>
+          <t>2025-11-14 06:30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-11-15 02:00</t>
+          <t>2025-11-14 12:00</t>
         </is>
       </c>
     </row>
@@ -2493,22 +2493,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-11-14 23:00</t>
+          <t>2025-11-14 06:30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-11-15 02:00</t>
+          <t>2025-11-14 12:00</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2709,22 +2709,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 23:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 02:00</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 23:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 02:00</t>
         </is>
       </c>
     </row>
@@ -2763,22 +2763,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 23:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 02:00</t>
         </is>
       </c>
     </row>
@@ -2790,22 +2790,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 23:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 02:00</t>
         </is>
       </c>
     </row>
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-14 23:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 02:00</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3465,22 +3465,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3492,22 +3492,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3519,22 +3519,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3546,22 +3546,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3573,22 +3573,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 06:30</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-15 12:00</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5571,22 +5571,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5598,22 +5598,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5625,22 +5625,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5652,22 +5652,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5679,22 +5679,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5706,22 +5706,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5733,22 +5733,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025-11-17 23:00</t>
+          <t>2025-11-17 06:30</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2025-11-18 02:00</t>
+          <t>2025-11-17 12:00</t>
         </is>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5895,22 +5895,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -5922,22 +5922,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -5949,22 +5949,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -5976,22 +5976,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -6030,22 +6030,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -6057,22 +6057,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-17 23:00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 02:00</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6678,22 +6678,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2025-11-18 23:00</t>
+          <t>2025-11-18 06:30</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2025-11-19 02:00</t>
+          <t>2025-11-18 12:00</t>
         </is>
       </c>
     </row>
@@ -6705,22 +6705,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2025-11-18 23:00</t>
+          <t>2025-11-18 06:30</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2025-11-19 02:00</t>
+          <t>2025-11-18 12:00</t>
         </is>
       </c>
     </row>
@@ -6732,22 +6732,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2025-11-18 23:00</t>
+          <t>2025-11-18 06:30</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2025-11-19 02:00</t>
+          <t>2025-11-18 12:00</t>
         </is>
       </c>
     </row>
@@ -6759,22 +6759,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2025-11-18 23:00</t>
+          <t>2025-11-18 06:30</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2025-11-19 02:00</t>
+          <t>2025-11-18 12:00</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2025-11-18 23:00</t>
+          <t>2025-11-18 06:30</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>2025-11-19 02:00</t>
+          <t>2025-11-18 12:00</t>
         </is>
       </c>
     </row>
@@ -6813,22 +6813,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2025-11-18 23:00</t>
+          <t>2025-11-18 06:30</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2025-11-19 02:00</t>
+          <t>2025-11-18 12:00</t>
         </is>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7002,22 +7002,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 23:00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 02:00</t>
         </is>
       </c>
     </row>
@@ -7029,22 +7029,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 23:00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 02:00</t>
         </is>
       </c>
     </row>
@@ -7056,22 +7056,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 23:00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 02:00</t>
         </is>
       </c>
     </row>
@@ -7083,22 +7083,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 23:00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 02:00</t>
         </is>
       </c>
     </row>
@@ -7110,22 +7110,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 23:00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 02:00</t>
         </is>
       </c>
     </row>
@@ -7137,22 +7137,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-18 23:00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 02:00</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7731,22 +7731,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7758,22 +7758,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7785,22 +7785,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7812,22 +7812,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7839,22 +7839,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7866,22 +7866,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7893,22 +7893,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2025-11-19 23:00</t>
+          <t>2025-11-19 06:30</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2025-11-20 02:00</t>
+          <t>2025-11-19 12:00</t>
         </is>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8055,22 +8055,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8082,22 +8082,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8109,22 +8109,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8136,22 +8136,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8163,22 +8163,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8190,22 +8190,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8217,22 +8217,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-19 23:00</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 02:00</t>
         </is>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8865,22 +8865,22 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>2025-11-20 23:00</t>
+          <t>2025-11-20 06:30</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>2025-11-21 02:00</t>
+          <t>2025-11-20 12:00</t>
         </is>
       </c>
     </row>
@@ -8892,22 +8892,22 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>2025-11-20 23:00</t>
+          <t>2025-11-20 06:30</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>2025-11-21 02:00</t>
+          <t>2025-11-20 12:00</t>
         </is>
       </c>
     </row>
@@ -8919,22 +8919,22 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>2025-11-20 23:00</t>
+          <t>2025-11-20 06:30</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>2025-11-21 02:00</t>
+          <t>2025-11-20 12:00</t>
         </is>
       </c>
     </row>
@@ -8946,22 +8946,22 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>2025-11-20 23:00</t>
+          <t>2025-11-20 06:30</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>2025-11-21 02:00</t>
+          <t>2025-11-20 12:00</t>
         </is>
       </c>
     </row>
@@ -8973,22 +8973,22 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>2025-11-20 23:00</t>
+          <t>2025-11-20 06:30</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>2025-11-21 02:00</t>
+          <t>2025-11-20 12:00</t>
         </is>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9189,22 +9189,22 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 23:00</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 02:00</t>
         </is>
       </c>
     </row>
@@ -9216,22 +9216,22 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 23:00</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 02:00</t>
         </is>
       </c>
     </row>
@@ -9243,22 +9243,22 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 23:00</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 02:00</t>
         </is>
       </c>
     </row>
@@ -9270,22 +9270,22 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 23:00</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 02:00</t>
         </is>
       </c>
     </row>
@@ -9297,22 +9297,22 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-20 23:00</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 02:00</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9945,22 +9945,22 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>2025-11-21 23:00</t>
+          <t>2025-11-21 06:30</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>2025-11-22 02:00</t>
+          <t>2025-11-21 12:00</t>
         </is>
       </c>
     </row>
@@ -9972,22 +9972,22 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>2025-11-21 23:00</t>
+          <t>2025-11-21 06:30</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>2025-11-22 02:00</t>
+          <t>2025-11-21 12:00</t>
         </is>
       </c>
     </row>
@@ -9999,22 +9999,22 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>2025-11-21 23:00</t>
+          <t>2025-11-21 06:30</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>2025-11-22 02:00</t>
+          <t>2025-11-21 12:00</t>
         </is>
       </c>
     </row>
@@ -10026,22 +10026,22 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>2025-11-21 23:00</t>
+          <t>2025-11-21 06:30</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>2025-11-22 02:00</t>
+          <t>2025-11-21 12:00</t>
         </is>
       </c>
     </row>
@@ -10053,22 +10053,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>2025-11-21 23:00</t>
+          <t>2025-11-21 06:30</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>2025-11-22 02:00</t>
+          <t>2025-11-21 12:00</t>
         </is>
       </c>
     </row>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -10269,22 +10269,22 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 23:00</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 02:00</t>
         </is>
       </c>
     </row>
@@ -10296,22 +10296,22 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 23:00</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 02:00</t>
         </is>
       </c>
     </row>
@@ -10323,22 +10323,22 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 23:00</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 02:00</t>
         </is>
       </c>
     </row>
@@ -10350,22 +10350,22 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 23:00</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 02:00</t>
         </is>
       </c>
     </row>
@@ -10377,22 +10377,22 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-21 23:00</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 02:00</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -11025,22 +11025,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 06:30</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 12:00</t>
         </is>
       </c>
     </row>
@@ -11052,22 +11052,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 06:30</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 12:00</t>
         </is>
       </c>
     </row>
@@ -11079,22 +11079,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 06:30</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 12:00</t>
         </is>
       </c>
     </row>
@@ -11106,22 +11106,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 06:30</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 12:00</t>
         </is>
       </c>
     </row>
@@ -11133,22 +11133,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 06:30</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-22 12:00</t>
         </is>
       </c>
     </row>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11484,7 +11484,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12780,7 +12780,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -13158,22 +13158,22 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2025-11-24 23:00</t>
+          <t>2025-11-24 06:30</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2025-11-25 02:00</t>
+          <t>2025-11-24 12:00</t>
         </is>
       </c>
     </row>
@@ -13185,22 +13185,22 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2025-11-24 23:00</t>
+          <t>2025-11-24 06:30</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>2025-11-25 02:00</t>
+          <t>2025-11-24 12:00</t>
         </is>
       </c>
     </row>
@@ -13212,22 +13212,22 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>2025-11-24 23:00</t>
+          <t>2025-11-24 06:30</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2025-11-25 02:00</t>
+          <t>2025-11-24 12:00</t>
         </is>
       </c>
     </row>
@@ -13239,22 +13239,22 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>2025-11-24 23:00</t>
+          <t>2025-11-24 06:30</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>2025-11-25 02:00</t>
+          <t>2025-11-24 12:00</t>
         </is>
       </c>
     </row>
@@ -13266,22 +13266,22 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2025-11-24 23:00</t>
+          <t>2025-11-24 06:30</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2025-11-25 02:00</t>
+          <t>2025-11-24 12:00</t>
         </is>
       </c>
     </row>
@@ -13293,22 +13293,22 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2025-11-24 23:00</t>
+          <t>2025-11-24 06:30</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>2025-11-25 02:00</t>
+          <t>2025-11-24 12:00</t>
         </is>
       </c>
     </row>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -13482,22 +13482,22 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-24 23:00</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 02:00</t>
         </is>
       </c>
     </row>
@@ -13509,22 +13509,22 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-24 23:00</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 02:00</t>
         </is>
       </c>
     </row>
@@ -13536,22 +13536,22 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-24 23:00</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 02:00</t>
         </is>
       </c>
     </row>
@@ -13563,22 +13563,22 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-24 23:00</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 02:00</t>
         </is>
       </c>
     </row>
@@ -13590,22 +13590,22 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-24 23:00</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 02:00</t>
         </is>
       </c>
     </row>
@@ -13617,22 +13617,22 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-24 23:00</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 02:00</t>
         </is>
       </c>
     </row>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13860,7 +13860,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13887,7 +13887,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -14238,22 +14238,22 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>2025-11-25 23:00</t>
+          <t>2025-11-25 06:30</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2025-11-26 02:00</t>
+          <t>2025-11-25 12:00</t>
         </is>
       </c>
     </row>
@@ -14265,22 +14265,22 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>2025-11-25 23:00</t>
+          <t>2025-11-25 06:30</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>2025-11-26 02:00</t>
+          <t>2025-11-25 12:00</t>
         </is>
       </c>
     </row>
@@ -14292,22 +14292,22 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2025-11-25 23:00</t>
+          <t>2025-11-25 06:30</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>2025-11-26 02:00</t>
+          <t>2025-11-25 12:00</t>
         </is>
       </c>
     </row>
@@ -14319,22 +14319,22 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>2025-11-25 23:00</t>
+          <t>2025-11-25 06:30</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>2025-11-26 02:00</t>
+          <t>2025-11-25 12:00</t>
         </is>
       </c>
     </row>
@@ -14346,22 +14346,22 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>2025-11-25 23:00</t>
+          <t>2025-11-25 06:30</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>2025-11-26 02:00</t>
+          <t>2025-11-25 12:00</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2025-11-25 23:00</t>
+          <t>2025-11-25 06:30</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>2025-11-26 02:00</t>
+          <t>2025-11-25 12:00</t>
         </is>
       </c>
     </row>
@@ -14400,7 +14400,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -14454,7 +14454,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14562,22 +14562,22 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 23:00</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 02:00</t>
         </is>
       </c>
     </row>
@@ -14589,22 +14589,22 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 23:00</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 02:00</t>
         </is>
       </c>
     </row>
@@ -14616,22 +14616,22 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 23:00</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 02:00</t>
         </is>
       </c>
     </row>
@@ -14643,22 +14643,22 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 23:00</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 02:00</t>
         </is>
       </c>
     </row>
@@ -14670,22 +14670,22 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 23:00</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 02:00</t>
         </is>
       </c>
     </row>
@@ -14697,22 +14697,22 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-25 23:00</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 02:00</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -15102,7 +15102,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -15318,22 +15318,22 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>2025-11-26 23:00</t>
+          <t>2025-11-26 06:30</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>2025-11-27 02:00</t>
+          <t>2025-11-26 12:00</t>
         </is>
       </c>
     </row>
@@ -15345,22 +15345,22 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>2025-11-26 23:00</t>
+          <t>2025-11-26 06:30</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>2025-11-27 02:00</t>
+          <t>2025-11-26 12:00</t>
         </is>
       </c>
     </row>
@@ -15372,22 +15372,22 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>2025-11-26 23:00</t>
+          <t>2025-11-26 06:30</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>2025-11-27 02:00</t>
+          <t>2025-11-26 12:00</t>
         </is>
       </c>
     </row>
@@ -15399,22 +15399,22 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>2025-11-26 23:00</t>
+          <t>2025-11-26 06:30</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>2025-11-27 02:00</t>
+          <t>2025-11-26 12:00</t>
         </is>
       </c>
     </row>
@@ -15426,22 +15426,22 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>2025-11-26 23:00</t>
+          <t>2025-11-26 06:30</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>2025-11-27 02:00</t>
+          <t>2025-11-26 12:00</t>
         </is>
       </c>
     </row>
@@ -15453,22 +15453,22 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>2025-11-26 23:00</t>
+          <t>2025-11-26 06:30</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>2025-11-27 02:00</t>
+          <t>2025-11-26 12:00</t>
         </is>
       </c>
     </row>
@@ -15480,7 +15480,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -15534,7 +15534,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -15642,22 +15642,22 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 23:00</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 02:00</t>
         </is>
       </c>
     </row>
@@ -15669,22 +15669,22 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 23:00</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 02:00</t>
         </is>
       </c>
     </row>
@@ -15696,22 +15696,22 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 23:00</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 02:00</t>
         </is>
       </c>
     </row>
@@ -15723,22 +15723,22 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 23:00</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 02:00</t>
         </is>
       </c>
     </row>
@@ -15750,22 +15750,22 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 23:00</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 02:00</t>
         </is>
       </c>
     </row>
@@ -15777,22 +15777,22 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-26 23:00</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 02:00</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -16317,7 +16317,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -16398,22 +16398,22 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>2025-11-27 23:00</t>
+          <t>2025-11-27 06:30</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>2025-11-28 02:00</t>
+          <t>2025-11-27 12:00</t>
         </is>
       </c>
     </row>
@@ -16425,22 +16425,22 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>2025-11-27 23:00</t>
+          <t>2025-11-27 06:30</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>2025-11-28 02:00</t>
+          <t>2025-11-27 12:00</t>
         </is>
       </c>
     </row>
@@ -16452,22 +16452,22 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>2025-11-27 23:00</t>
+          <t>2025-11-27 06:30</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>2025-11-28 02:00</t>
+          <t>2025-11-27 12:00</t>
         </is>
       </c>
     </row>
@@ -16479,22 +16479,22 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>2025-11-27 23:00</t>
+          <t>2025-11-27 06:30</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>2025-11-28 02:00</t>
+          <t>2025-11-27 12:00</t>
         </is>
       </c>
     </row>
@@ -16506,22 +16506,22 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>2025-11-27 23:00</t>
+          <t>2025-11-27 06:30</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>2025-11-28 02:00</t>
+          <t>2025-11-27 12:00</t>
         </is>
       </c>
     </row>
@@ -16533,22 +16533,22 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>2025-11-27 23:00</t>
+          <t>2025-11-27 06:30</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>2025-11-28 02:00</t>
+          <t>2025-11-27 12:00</t>
         </is>
       </c>
     </row>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -16614,7 +16614,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -16722,22 +16722,22 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 23:00</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 02:00</t>
         </is>
       </c>
     </row>
@@ -16749,22 +16749,22 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 23:00</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 02:00</t>
         </is>
       </c>
     </row>
@@ -16776,22 +16776,22 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 23:00</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 02:00</t>
         </is>
       </c>
     </row>
@@ -16803,22 +16803,22 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 23:00</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 02:00</t>
         </is>
       </c>
     </row>
@@ -16830,22 +16830,22 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 23:00</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 02:00</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-27 23:00</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 02:00</t>
         </is>
       </c>
     </row>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -16938,7 +16938,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -17154,7 +17154,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -17289,7 +17289,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -17451,7 +17451,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -17505,22 +17505,22 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2025-11-28 23:00</t>
+          <t>2025-11-28 06:30</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>2025-11-29 02:00</t>
+          <t>2025-11-28 12:00</t>
         </is>
       </c>
     </row>
@@ -17532,22 +17532,22 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>2025-11-28 23:00</t>
+          <t>2025-11-28 06:30</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>2025-11-29 02:00</t>
+          <t>2025-11-28 12:00</t>
         </is>
       </c>
     </row>
@@ -17559,22 +17559,22 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>2025-11-28 23:00</t>
+          <t>2025-11-28 06:30</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>2025-11-29 02:00</t>
+          <t>2025-11-28 12:00</t>
         </is>
       </c>
     </row>
@@ -17586,22 +17586,22 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>2025-11-28 23:00</t>
+          <t>2025-11-28 06:30</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>2025-11-29 02:00</t>
+          <t>2025-11-28 12:00</t>
         </is>
       </c>
     </row>
@@ -17613,22 +17613,22 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Night-1</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>2025-11-28 23:00</t>
+          <t>2025-11-28 06:30</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>2025-11-29 02:00</t>
+          <t>2025-11-28 12:00</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -17667,7 +17667,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Nguyen Thi Dinh</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -17694,7 +17694,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Nguyen Tien Hai</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -17829,22 +17829,22 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Nguyen Thi Dinh</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 23:00</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 02:00</t>
         </is>
       </c>
     </row>
@@ -17856,22 +17856,22 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 23:00</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 02:00</t>
         </is>
       </c>
     </row>
@@ -17883,22 +17883,22 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 23:00</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 02:00</t>
         </is>
       </c>
     </row>
@@ -17910,22 +17910,22 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 23:00</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 02:00</t>
         </is>
       </c>
     </row>
@@ -17937,22 +17937,22 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Night-1</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-28 23:00</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 02:00</t>
         </is>
       </c>
     </row>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -18180,7 +18180,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Nguyen Quang Truong</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Tien Hai</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -18261,7 +18261,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Nguyen Quang Truong</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -18288,7 +18288,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -18558,22 +18558,22 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 06:30</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 12:00</t>
         </is>
       </c>
     </row>
@@ -18585,22 +18585,22 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 06:30</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 12:00</t>
         </is>
       </c>
     </row>
@@ -18612,22 +18612,22 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 06:30</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 12:00</t>
         </is>
       </c>
     </row>
@@ -18639,22 +18639,22 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 06:30</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 12:00</t>
         </is>
       </c>
     </row>
@@ -18666,22 +18666,22 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 06:30</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 12:00</t>
         </is>
       </c>
     </row>
@@ -18693,22 +18693,22 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Trieu Trung Kien</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 06:30</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Nghỉ</t>
+          <t>2025-11-29 12:00</t>
         </is>
       </c>
     </row>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -18747,7 +18747,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -18774,7 +18774,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Trieu Trung Kien</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Dang Tuan Anh</t>
+          <t>Dang Tien Dat</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -18855,7 +18855,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Hoang Hai Khang</t>
+          <t>Dao Ngoc Trang</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -18882,7 +18882,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Hoang Quynh Trang</t>
+          <t>Do Truong Bach</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Luong Nguyen Thanh Ha</t>
+          <t>Khong Thi Kim Oanh</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Nguyen Duc Phuong</t>
+          <t>Nguyen Minh Huyen</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Nguyen Minh Huyen</t>
+          <t>Nguyen Ngoc Giao</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Nguyen Phuong Ngoc Anh</t>
+          <t>Nguyen Ngoc Tung</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Anh</t>
+          <t>Phan Trung Tien</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Phan Trung Tien</t>
+          <t>Tran Duc Hai</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -19125,7 +19125,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Phung Quang Dung</t>
+          <t>Tran Thu Nga</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -19152,7 +19152,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Dang Tien Dat</t>
+          <t>Dang Tuan Anh</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Gia Phong</t>
+          <t>Do Thi Hue</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Nguyen Hong Anh</t>
+          <t>Gia Phong</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Giao</t>
+          <t>Hoang Minh Hieu</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Son</t>
+          <t>Ma Dinh Hung</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -19287,7 +19287,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Tung</t>
+          <t>Nguyen Phuong Ngoc Anh</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -19341,7 +19341,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Nguyen Thoa Hong</t>
+          <t>Nguyen Van Trung</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Nguyen Van Mui</t>
+          <t>Pham Thi Ngoc Anh</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Pham Thi Ngoc Huyen</t>
+          <t>Phung Quang Dung</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tran Duc Hai</t>
+          <t>Tran Anh Duc</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -19449,7 +19449,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Tran Thu Nga</t>
+          <t>Truong Thi Hoa</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Dao Ngoc Trang</t>
+          <t>Duong Thi Huong</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Do Thi Hue</t>
+          <t>Hau Trung Hieu</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Do Truong Bach</t>
+          <t>Hoang Hai Khang</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -19557,7 +19557,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Duong Thi Huong</t>
+          <t>Luong Nguyen Thanh Ha</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Hau Trung Hieu</t>
+          <t>Nguyen Hong Anh</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Hoang Minh Hieu</t>
+          <t>Nguyen Ngoc Long</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -19638,7 +19638,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Khong Thi Kim Oanh</t>
+          <t>Nguyen Ngoc Son</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -19665,7 +19665,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Nguyen Ngoc Long</t>
+          <t>Nguyen Thi Thuy</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Nguyen Van Trung</t>
+          <t>Nguyen Thoa Hong</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tran Anh Duc</t>
+          <t>Pham Thi Ngoc Huyen</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -19746,7 +19746,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Trieu Duc Manh</t>
+          <t>Trieu Linh Chi</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Ma Dinh Hung</t>
+          <t>Hoang Quynh Trang</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -19827,7 +19827,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Nguyen Thi Thuy</t>
+          <t>Nguyen Duc Phuong</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -19854,7 +19854,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Trieu Linh Chi</t>
+          <t>Nguyen Van Mui</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Truong Thi Hoa</t>
+          <t>Trieu Duc Manh</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
